--- a/MutualFund/Data/df_pred.xlsx
+++ b/MutualFund/Data/df_pred.xlsx
@@ -559,7 +559,7 @@
         <v>0.564667602128565</v>
       </c>
       <c r="D9" t="n">
-        <v>11.14139594864461</v>
+        <v>10.9399495199492</v>
       </c>
     </row>
     <row r="10">
@@ -601,7 +601,7 @@
         <v>0.5220675511743644</v>
       </c>
       <c r="D12" t="n">
-        <v>4.245083592379844</v>
+        <v>4.387280042336962</v>
       </c>
     </row>
     <row r="13">
@@ -629,7 +629,7 @@
         <v>0.5167775432286179</v>
       </c>
       <c r="D14" t="n">
-        <v>7.284787034889714</v>
+        <v>7.430403194710384</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>0.5268220061627007</v>
       </c>
       <c r="D15" t="n">
-        <v>5.443143882992007</v>
+        <v>6.244241547753537</v>
       </c>
     </row>
     <row r="16">
@@ -685,7 +685,7 @@
         <v>0.5186622549534651</v>
       </c>
       <c r="D18" t="n">
-        <v>25.14970929160126</v>
+        <v>22.10083747546465</v>
       </c>
     </row>
     <row r="19">
@@ -727,7 +727,7 @@
         <v>0.614252479612969</v>
       </c>
       <c r="D21" t="n">
-        <v>6.950051063311688</v>
+        <v>8.124010729034426</v>
       </c>
     </row>
     <row r="22">
@@ -755,7 +755,7 @@
         <v>0.5169794083695425</v>
       </c>
       <c r="D23" t="n">
-        <v>5.198973644995878</v>
+        <v>4.878410623079358</v>
       </c>
     </row>
     <row r="24">
@@ -797,7 +797,7 @@
         <v>0.6529023960692135</v>
       </c>
       <c r="D26" t="n">
-        <v>6.450048173067012</v>
+        <v>6.799088813001519</v>
       </c>
     </row>
     <row r="27">
@@ -825,7 +825,7 @@
         <v>0.5122685258570747</v>
       </c>
       <c r="D28" t="n">
-        <v>21.47579176169068</v>
+        <v>14.00589546078737</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>0.7663221442143657</v>
       </c>
       <c r="D29" t="n">
-        <v>9.882348803686396</v>
+        <v>8.909843469057977</v>
       </c>
     </row>
     <row r="30">
@@ -965,7 +965,7 @@
         <v>0.5007891853262518</v>
       </c>
       <c r="D38" t="n">
-        <v>11.64544851461039</v>
+        <v>10.20049872931496</v>
       </c>
     </row>
     <row r="39">
@@ -1021,7 +1021,7 @@
         <v>0.5107715976933795</v>
       </c>
       <c r="D42" t="n">
-        <v>6.44795020115214</v>
+        <v>7.166070957822813</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>0.5061803338719196</v>
       </c>
       <c r="D43" t="n">
-        <v>7.227231049268193</v>
+        <v>6.618421965347147</v>
       </c>
     </row>
     <row r="44">
@@ -1091,7 +1091,7 @@
         <v>0.5679214303685101</v>
       </c>
       <c r="D47" t="n">
-        <v>6.453717963038945</v>
+        <v>6.323362720138461</v>
       </c>
     </row>
     <row r="48">
@@ -1133,7 +1133,7 @@
         <v>0.6207002923985018</v>
       </c>
       <c r="D50" t="n">
-        <v>10.36652480064579</v>
+        <v>8.505713855958664</v>
       </c>
     </row>
     <row r="51">
@@ -1161,7 +1161,7 @@
         <v>0.5860522238646946</v>
       </c>
       <c r="D52" t="n">
-        <v>10.44626844323335</v>
+        <v>8.602350226243473</v>
       </c>
     </row>
     <row r="53">
@@ -1203,7 +1203,7 @@
         <v>0.5087030964118882</v>
       </c>
       <c r="D55" t="n">
-        <v>6.070435048389112</v>
+        <v>6.44385000180764</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>0.5206813167222832</v>
       </c>
       <c r="D56" t="n">
-        <v>3.400017732822733</v>
+        <v>5.25664124964438</v>
       </c>
     </row>
     <row r="57">
@@ -1315,7 +1315,7 @@
         <v>0.6620267834049168</v>
       </c>
       <c r="D63" t="n">
-        <v>8.435147749859269</v>
+        <v>6.674556808072687</v>
       </c>
     </row>
     <row r="64">
@@ -1371,7 +1371,7 @@
         <v>0.6164940375412853</v>
       </c>
       <c r="D67" t="n">
-        <v>6.487331185540649</v>
+        <v>6.293358580152731</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>0.610061946513504</v>
       </c>
       <c r="D68" t="n">
-        <v>18.59812034838177</v>
+        <v>17.36317602934541</v>
       </c>
     </row>
     <row r="69">
@@ -1427,7 +1427,7 @@
         <v>0.5218277358185043</v>
       </c>
       <c r="D71" t="n">
-        <v>5.6038619452819</v>
+        <v>5.138357611556963</v>
       </c>
     </row>
     <row r="72">
@@ -1469,7 +1469,7 @@
         <v>0.5908353953718284</v>
       </c>
       <c r="D74" t="n">
-        <v>7.214308842214336</v>
+        <v>5.675975782227908</v>
       </c>
     </row>
     <row r="75">
@@ -1567,7 +1567,7 @@
         <v>0.651441822385317</v>
       </c>
       <c r="D81" t="n">
-        <v>9.761261134649084</v>
+        <v>10.90511953231953</v>
       </c>
     </row>
     <row r="82">
@@ -1609,7 +1609,7 @@
         <v>0.5056979966132648</v>
       </c>
       <c r="D84" t="n">
-        <v>6.674213017300161</v>
+        <v>6.901296179910289</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>0.5274770162805685</v>
       </c>
       <c r="D85" t="n">
-        <v>5.330114652470546</v>
+        <v>5.500961194008394</v>
       </c>
     </row>
     <row r="86">
@@ -1651,7 +1651,7 @@
         <v>0.5145744897165856</v>
       </c>
       <c r="D87" t="n">
-        <v>9.368635642105909</v>
+        <v>9.871505776199362</v>
       </c>
     </row>
     <row r="88">
@@ -1707,7 +1707,7 @@
         <v>0.5042024965066071</v>
       </c>
       <c r="D91" t="n">
-        <v>10.50895579575187</v>
+        <v>10.9468583869693</v>
       </c>
     </row>
     <row r="92">
@@ -1931,7 +1931,7 @@
         <v>0.5233425973107656</v>
       </c>
       <c r="D107" t="n">
-        <v>11.41077956829293</v>
+        <v>10.98776868723587</v>
       </c>
     </row>
     <row r="108">
@@ -1959,7 +1959,7 @@
         <v>0.5331248586201652</v>
       </c>
       <c r="D109" t="n">
-        <v>7.198098432638788</v>
+        <v>7.398299023591953</v>
       </c>
     </row>
     <row r="110">
@@ -2127,7 +2127,7 @@
         <v>0.5297762169424849</v>
       </c>
       <c r="D121" t="n">
-        <v>7.157305067640692</v>
+        <v>4.627292290154016</v>
       </c>
     </row>
     <row r="122">
@@ -2197,7 +2197,7 @@
         <v>0.5044572111050731</v>
       </c>
       <c r="D126" t="n">
-        <v>7.100212004364685</v>
+        <v>10.16538373818836</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2211,7 @@
         <v>0.5432954304351919</v>
       </c>
       <c r="D127" t="n">
-        <v>32.18871688646671</v>
+        <v>28.41307870288685</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2225,7 @@
         <v>0.5414383451477054</v>
       </c>
       <c r="D128" t="n">
-        <v>10.94636823491984</v>
+        <v>8.908959369582238</v>
       </c>
     </row>
     <row r="129">
@@ -2253,7 +2253,7 @@
         <v>0.5546103825036177</v>
       </c>
       <c r="D130" t="n">
-        <v>6.097249140482534</v>
+        <v>5.967631401855424</v>
       </c>
     </row>
     <row r="131">
@@ -2295,7 +2295,7 @@
         <v>0.6283668972367311</v>
       </c>
       <c r="D133" t="n">
-        <v>7.087187817410764</v>
+        <v>8.335951860023636</v>
       </c>
     </row>
     <row r="134">
@@ -2351,7 +2351,7 @@
         <v>0.5080129452856375</v>
       </c>
       <c r="D137" t="n">
-        <v>5.051988207550503</v>
+        <v>4.56624025618027</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2365,7 @@
         <v>0.5257532488105197</v>
       </c>
       <c r="D138" t="n">
-        <v>10.628302266097</v>
+        <v>9.583892188170044</v>
       </c>
     </row>
     <row r="139">
@@ -2449,7 +2449,7 @@
         <v>0.5536261632008403</v>
       </c>
       <c r="D144" t="n">
-        <v>9.356323407673674</v>
+        <v>8.424106545227259</v>
       </c>
     </row>
     <row r="145">
@@ -2547,7 +2547,7 @@
         <v>0.5953295162017533</v>
       </c>
       <c r="D151" t="n">
-        <v>37.63209702922077</v>
+        <v>27.81912519082109</v>
       </c>
     </row>
     <row r="152">
@@ -2603,7 +2603,7 @@
         <v>0.5115332777497905</v>
       </c>
       <c r="D155" t="n">
-        <v>10.43067777757956</v>
+        <v>9.801455043342221</v>
       </c>
     </row>
     <row r="156">
@@ -2645,7 +2645,7 @@
         <v>0.5054630786878721</v>
       </c>
       <c r="D158" t="n">
-        <v>7.219130912396134</v>
+        <v>6.745334398654473</v>
       </c>
     </row>
     <row r="159">
@@ -2715,7 +2715,7 @@
         <v>0.5845511699271321</v>
       </c>
       <c r="D163" t="n">
-        <v>9.033919012317046</v>
+        <v>10.0382100813788</v>
       </c>
     </row>
     <row r="164">
@@ -2743,7 +2743,7 @@
         <v>0.5401546287159944</v>
       </c>
       <c r="D165" t="n">
-        <v>11.32316412395641</v>
+        <v>12.92826496755236</v>
       </c>
     </row>
     <row r="166">
@@ -2757,7 +2757,7 @@
         <v>0.510026647919578</v>
       </c>
       <c r="D166" t="n">
-        <v>10.51746808838396</v>
+        <v>12.33113658578532</v>
       </c>
     </row>
     <row r="167">
@@ -2771,7 +2771,7 @@
         <v>0.5372155994847192</v>
       </c>
       <c r="D167" t="n">
-        <v>3.478414136429048</v>
+        <v>3.602398648653225</v>
       </c>
     </row>
     <row r="168">
@@ -2799,7 +2799,7 @@
         <v>0.6247256320361508</v>
       </c>
       <c r="D169" t="n">
-        <v>12.07596985821718</v>
+        <v>11.08865056161149</v>
       </c>
     </row>
     <row r="170">
@@ -2855,7 +2855,7 @@
         <v>0.5024197088861357</v>
       </c>
       <c r="D173" t="n">
-        <v>9.336722411665715</v>
+        <v>9.248672950474669</v>
       </c>
     </row>
     <row r="174">
@@ -2883,7 +2883,7 @@
         <v>0.5316192950368459</v>
       </c>
       <c r="D175" t="n">
-        <v>8.246714638218924</v>
+        <v>7.640922345394359</v>
       </c>
     </row>
     <row r="176">
@@ -2911,7 +2911,7 @@
         <v>0.5106493296091589</v>
       </c>
       <c r="D177" t="n">
-        <v>12.85688407919461</v>
+        <v>13.44634248809509</v>
       </c>
     </row>
     <row r="178">
@@ -3009,7 +3009,7 @@
         <v>0.533619253510674</v>
       </c>
       <c r="D184" t="n">
-        <v>6.999807541060131</v>
+        <v>10.83456522019374</v>
       </c>
     </row>
     <row r="185">
@@ -3079,7 +3079,7 @@
         <v>0.50106583286854</v>
       </c>
       <c r="D189" t="n">
-        <v>20.28409192459326</v>
+        <v>18.78139774744114</v>
       </c>
     </row>
     <row r="190">
@@ -3093,7 +3093,7 @@
         <v>0.5597764754016644</v>
       </c>
       <c r="D190" t="n">
-        <v>9.337961945931053</v>
+        <v>8.833615694198137</v>
       </c>
     </row>
     <row r="191">
@@ -3163,7 +3163,7 @@
         <v>0.5419387062996215</v>
       </c>
       <c r="D195" t="n">
-        <v>11.2525939031306</v>
+        <v>9.582266694704881</v>
       </c>
     </row>
     <row r="196">
@@ -3205,7 +3205,7 @@
         <v>0.5025017529612257</v>
       </c>
       <c r="D198" t="n">
-        <v>11.69480253246754</v>
+        <v>11.07943242855386</v>
       </c>
     </row>
     <row r="199">
@@ -3359,7 +3359,7 @@
         <v>0.6880765937765542</v>
       </c>
       <c r="D209" t="n">
-        <v>9.292824725017049</v>
+        <v>7.457682157707588</v>
       </c>
     </row>
     <row r="210">
@@ -3387,7 +3387,7 @@
         <v>0.5343065317743895</v>
       </c>
       <c r="D211" t="n">
-        <v>4.84264329487477</v>
+        <v>5.711186637822961</v>
       </c>
     </row>
     <row r="212">
@@ -3429,7 +3429,7 @@
         <v>0.5819218083590652</v>
       </c>
       <c r="D214" t="n">
-        <v>30.7722248656304</v>
+        <v>24.8949100476156</v>
       </c>
     </row>
     <row r="215">
@@ -3443,7 +3443,7 @@
         <v>0.5347584850554912</v>
       </c>
       <c r="D215" t="n">
-        <v>10.108458514432</v>
+        <v>11.35521059272301</v>
       </c>
     </row>
     <row r="216">
@@ -3583,7 +3583,7 @@
         <v>0.5847408782509574</v>
       </c>
       <c r="D225" t="n">
-        <v>9.203603469903111</v>
+        <v>8.027882430713545</v>
       </c>
     </row>
     <row r="226">
@@ -3597,7 +3597,7 @@
         <v>0.5514568752347406</v>
       </c>
       <c r="D226" t="n">
-        <v>8.268952648413096</v>
+        <v>8.495804193540664</v>
       </c>
     </row>
     <row r="227">
@@ -3611,7 +3611,7 @@
         <v>0.5457245471727148</v>
       </c>
       <c r="D227" t="n">
-        <v>4.350654384653046</v>
+        <v>3.695502493096789</v>
       </c>
     </row>
     <row r="228">
@@ -3667,7 +3667,7 @@
         <v>0.5848987854479093</v>
       </c>
       <c r="D231" t="n">
-        <v>15.47419978999176</v>
+        <v>12.50294386681917</v>
       </c>
     </row>
     <row r="232">
@@ -3695,7 +3695,7 @@
         <v>0.5760512770175173</v>
       </c>
       <c r="D233" t="n">
-        <v>5.121060732729571</v>
+        <v>6.799033412809473</v>
       </c>
     </row>
     <row r="234">
@@ -3737,7 +3737,7 @@
         <v>0.526730287238426</v>
       </c>
       <c r="D236" t="n">
-        <v>7.451405854462998</v>
+        <v>7.575644797392846</v>
       </c>
     </row>
     <row r="237">
@@ -3793,7 +3793,7 @@
         <v>0.4162643283797696</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>1.407740992063492</v>
       </c>
     </row>
     <row r="241">
@@ -3821,7 +3821,7 @@
         <v>0.5365900461176883</v>
       </c>
       <c r="D242" t="n">
-        <v>8.742670449778394</v>
+        <v>9.062747515197218</v>
       </c>
     </row>
     <row r="243">
@@ -3849,7 +3849,7 @@
         <v>0.5038049682544482</v>
       </c>
       <c r="D244" t="n">
-        <v>12.83245881628788</v>
+        <v>11.76884473751447</v>
       </c>
     </row>
     <row r="245">
@@ -3877,7 +3877,7 @@
         <v>0.6871248131577891</v>
       </c>
       <c r="D246" t="n">
-        <v>7.993868213919017</v>
+        <v>5.963715022665632</v>
       </c>
     </row>
     <row r="247">
@@ -3891,7 +3891,7 @@
         <v>0.575063583997442</v>
       </c>
       <c r="D247" t="n">
-        <v>35.04467966205421</v>
+        <v>27.80030680339696</v>
       </c>
     </row>
     <row r="248">
@@ -3947,7 +3947,7 @@
         <v>0.5231039054625273</v>
       </c>
       <c r="D251" t="n">
-        <v>5.584049505335933</v>
+        <v>6.227917824530842</v>
       </c>
     </row>
     <row r="252">
@@ -4003,7 +4003,7 @@
         <v>0.5006943769276505</v>
       </c>
       <c r="D255" t="n">
-        <v>6.371888891158444</v>
+        <v>5.710988486726859</v>
       </c>
     </row>
     <row r="256">
@@ -4017,7 +4017,7 @@
         <v>0.6352886397261447</v>
       </c>
       <c r="D256" t="n">
-        <v>11.68184748648178</v>
+        <v>9.564874403712242</v>
       </c>
     </row>
     <row r="257">
@@ -4059,7 +4059,7 @@
         <v>0.5190759956543214</v>
       </c>
       <c r="D259" t="n">
-        <v>6.039345382776944</v>
+        <v>6.398765568389942</v>
       </c>
     </row>
     <row r="260">
@@ -4073,7 +4073,7 @@
         <v>0.6879840245357349</v>
       </c>
       <c r="D260" t="n">
-        <v>12.43090707247118</v>
+        <v>10.24745679403094</v>
       </c>
     </row>
     <row r="261">
@@ -4087,7 +4087,7 @@
         <v>0.5813002042588981</v>
       </c>
       <c r="D261" t="n">
-        <v>21.64087619669022</v>
+        <v>15.55796925250219</v>
       </c>
     </row>
     <row r="262">
@@ -4129,7 +4129,7 @@
         <v>0.6273753731167961</v>
       </c>
       <c r="D264" t="n">
-        <v>6.518568360389611</v>
+        <v>6.373076872362192</v>
       </c>
     </row>
     <row r="265">
@@ -4171,7 +4171,7 @@
         <v>0.5142162820618829</v>
       </c>
       <c r="D267" t="n">
-        <v>5.515441379562897</v>
+        <v>5.336415806844396</v>
       </c>
     </row>
     <row r="268">
@@ -4185,7 +4185,7 @@
         <v>0.2621982317120587</v>
       </c>
       <c r="D268" t="n">
-        <v>0.8341124188311688</v>
+        <v>0.7649405059523809</v>
       </c>
     </row>
     <row r="269">
@@ -4227,7 +4227,7 @@
         <v>0.521630415590694</v>
       </c>
       <c r="D271" t="n">
-        <v>16.95173162153323</v>
+        <v>15.46467238351848</v>
       </c>
     </row>
     <row r="272">
@@ -4241,7 +4241,7 @@
         <v>0.5249226954347532</v>
       </c>
       <c r="D272" t="n">
-        <v>14.13637663445681</v>
+        <v>14.11581236395871</v>
       </c>
     </row>
     <row r="273">
@@ -4325,7 +4325,7 @@
         <v>0.5538536772430542</v>
       </c>
       <c r="D278" t="n">
-        <v>8.867427500727564</v>
+        <v>11.55809196120277</v>
       </c>
     </row>
     <row r="279">
@@ -4395,7 +4395,7 @@
         <v>0.4328694008916905</v>
       </c>
       <c r="D283" t="n">
-        <v>0.8341124188311688</v>
+        <v>1.413376071428571</v>
       </c>
     </row>
     <row r="284">
@@ -4423,7 +4423,7 @@
         <v>0.5270680667789786</v>
       </c>
       <c r="D285" t="n">
-        <v>10.46763135384457</v>
+        <v>9.738212660238533</v>
       </c>
     </row>
     <row r="286">
@@ -4437,7 +4437,7 @@
         <v>0.5529068542787093</v>
       </c>
       <c r="D286" t="n">
-        <v>4.369294110695852</v>
+        <v>5.055144107539191</v>
       </c>
     </row>
     <row r="287">
@@ -4451,7 +4451,7 @@
         <v>0.5208900428575335</v>
       </c>
       <c r="D287" t="n">
-        <v>8.90814046718163</v>
+        <v>10.3271701049943</v>
       </c>
     </row>
     <row r="288">
@@ -4479,7 +4479,7 @@
         <v>0.5357407059544189</v>
       </c>
       <c r="D289" t="n">
-        <v>38.38608180191832</v>
+        <v>25.6028152481894</v>
       </c>
     </row>
     <row r="290">
@@ -4521,7 +4521,7 @@
         <v>0.5373180482267429</v>
       </c>
       <c r="D292" t="n">
-        <v>9.306618494204209</v>
+        <v>8.648006531439497</v>
       </c>
     </row>
     <row r="293">
@@ -4535,7 +4535,7 @@
         <v>0.4358391722252684</v>
       </c>
       <c r="D293" t="n">
-        <v>3.388505658627087</v>
+        <v>2.160986706349207</v>
       </c>
     </row>
     <row r="294">
@@ -4563,7 +4563,7 @@
         <v>0.5088847085527495</v>
       </c>
       <c r="D295" t="n">
-        <v>7.342140711976515</v>
+        <v>7.799370994072165</v>
       </c>
     </row>
     <row r="296">
@@ -4577,7 +4577,7 @@
         <v>0.3982988512862395</v>
       </c>
       <c r="D296" t="n">
-        <v>0.8341124188311688</v>
+        <v>2.027138265306122</v>
       </c>
     </row>
     <row r="297">
@@ -4731,7 +4731,7 @@
         <v>0.5255521634312459</v>
       </c>
       <c r="D307" t="n">
-        <v>9.669059783549788</v>
+        <v>6.883421154723751</v>
       </c>
     </row>
     <row r="308">
@@ -4745,7 +4745,7 @@
         <v>0.5607337926512082</v>
       </c>
       <c r="D308" t="n">
-        <v>8.51540431342467</v>
+        <v>9.113702064180274</v>
       </c>
     </row>
     <row r="309">
@@ -4843,7 +4843,7 @@
         <v>0.551677150333121</v>
       </c>
       <c r="D315" t="n">
-        <v>6.781730887039548</v>
+        <v>6.215334819053687</v>
       </c>
     </row>
     <row r="316">
@@ -4941,7 +4941,7 @@
         <v>0.5612160252883744</v>
       </c>
       <c r="D322" t="n">
-        <v>5.71158450229334</v>
+        <v>6.048435016088895</v>
       </c>
     </row>
     <row r="323">
@@ -4997,7 +4997,7 @@
         <v>0.5490601323579518</v>
       </c>
       <c r="D326" t="n">
-        <v>11.11147540722175</v>
+        <v>8.389760548918291</v>
       </c>
     </row>
     <row r="327">
@@ -5011,7 +5011,7 @@
         <v>0.55331864938771</v>
       </c>
       <c r="D327" t="n">
-        <v>5.551211386649065</v>
+        <v>4.020150045928046</v>
       </c>
     </row>
     <row r="328">
@@ -5025,7 +5025,7 @@
         <v>0.5809517271951062</v>
       </c>
       <c r="D328" t="n">
-        <v>14.3854336179396</v>
+        <v>14.45443333808834</v>
       </c>
     </row>
     <row r="329">
@@ -5067,7 +5067,7 @@
         <v>0.5199556432355132</v>
       </c>
       <c r="D331" t="n">
-        <v>11.87515012267494</v>
+        <v>11.76928359670142</v>
       </c>
     </row>
     <row r="332">
@@ -5165,7 +5165,7 @@
         <v>0.5285278853657017</v>
       </c>
       <c r="D338" t="n">
-        <v>8.543358370845427</v>
+        <v>8.706892228845405</v>
       </c>
     </row>
     <row r="339">
@@ -5235,7 +5235,7 @@
         <v>0.5365259880557179</v>
       </c>
       <c r="D343" t="n">
-        <v>13.09005791782623</v>
+        <v>10.48449705512013</v>
       </c>
     </row>
     <row r="344">
@@ -5263,7 +5263,7 @@
         <v>0.7570339748292869</v>
       </c>
       <c r="D345" t="n">
-        <v>11.79826288749941</v>
+        <v>11.54195110085215</v>
       </c>
     </row>
     <row r="346">
@@ -5305,7 +5305,7 @@
         <v>0.5527502475837284</v>
       </c>
       <c r="D348" t="n">
-        <v>4.414378715168761</v>
+        <v>3.707167122220308</v>
       </c>
     </row>
     <row r="349">
@@ -5319,7 +5319,7 @@
         <v>0.5169251380979217</v>
       </c>
       <c r="D349" t="n">
-        <v>11.27325209950764</v>
+        <v>10.53192906776638</v>
       </c>
     </row>
     <row r="350">
@@ -5347,7 +5347,7 @@
         <v>0.5088148957251682</v>
       </c>
       <c r="D351" t="n">
-        <v>4.817385485853433</v>
+        <v>5.859527321081115</v>
       </c>
     </row>
     <row r="352">
@@ -5361,7 +5361,7 @@
         <v>0.520674201466632</v>
       </c>
       <c r="D352" t="n">
-        <v>9.776423544838099</v>
+        <v>7.056703814266281</v>
       </c>
     </row>
     <row r="353">
@@ -5375,7 +5375,7 @@
         <v>0.5230114605721581</v>
       </c>
       <c r="D353" t="n">
-        <v>18.17551628903834</v>
+        <v>14.16946030150309</v>
       </c>
     </row>
     <row r="354">
@@ -5389,7 +5389,7 @@
         <v>0.5292103223052179</v>
       </c>
       <c r="D354" t="n">
-        <v>4.974815913243504</v>
+        <v>4.325937120068889</v>
       </c>
     </row>
     <row r="355">
@@ -5417,7 +5417,7 @@
         <v>0.50602329698855</v>
       </c>
       <c r="D356" t="n">
-        <v>4.95511185077819</v>
+        <v>4.318652221168481</v>
       </c>
     </row>
     <row r="357">
@@ -5445,7 +5445,7 @@
         <v>0.540418932068261</v>
       </c>
       <c r="D358" t="n">
-        <v>8.315961669580419</v>
+        <v>7.372031569605213</v>
       </c>
     </row>
     <row r="359">
@@ -5473,7 +5473,7 @@
         <v>0.5012173495327994</v>
       </c>
       <c r="D360" t="n">
-        <v>7.159933370964353</v>
+        <v>6.838306108160048</v>
       </c>
     </row>
     <row r="361">
@@ -5571,7 +5571,7 @@
         <v>0.5125503972862062</v>
       </c>
       <c r="D367" t="n">
-        <v>7.561246831140092</v>
+        <v>5.401623964653656</v>
       </c>
     </row>
     <row r="368">
@@ -5697,7 +5697,7 @@
         <v>0.5661980804040915</v>
       </c>
       <c r="D376" t="n">
-        <v>4.984731004957345</v>
+        <v>4.878859709360822</v>
       </c>
     </row>
     <row r="377">
@@ -5711,7 +5711,7 @@
         <v>0.5347206195389711</v>
       </c>
       <c r="D377" t="n">
-        <v>10.21866488131908</v>
+        <v>9.415667826052617</v>
       </c>
     </row>
     <row r="378">
@@ -5739,7 +5739,7 @@
         <v>0.5391045063182056</v>
       </c>
       <c r="D379" t="n">
-        <v>5.355688161332713</v>
+        <v>6.276272438262716</v>
       </c>
     </row>
     <row r="380">
@@ -5823,7 +5823,7 @@
         <v>0.5306840469789529</v>
       </c>
       <c r="D385" t="n">
-        <v>5.634247965690065</v>
+        <v>6.164379140154415</v>
       </c>
     </row>
     <row r="386">
@@ -5879,7 +5879,7 @@
         <v>0.523216294334914</v>
       </c>
       <c r="D389" t="n">
-        <v>16.64020757956824</v>
+        <v>12.07818344075664</v>
       </c>
     </row>
     <row r="390">
@@ -5893,7 +5893,7 @@
         <v>0.417924471164161</v>
       </c>
       <c r="D390" t="n">
-        <v>3.388505658627087</v>
+        <v>1.021436825396826</v>
       </c>
     </row>
     <row r="391">
@@ -5935,7 +5935,7 @@
         <v>0.5501897453504295</v>
       </c>
       <c r="D393" t="n">
-        <v>7.254576016364588</v>
+        <v>7.514440361671574</v>
       </c>
     </row>
     <row r="394">
@@ -5963,7 +5963,7 @@
         <v>0.5631903622923472</v>
       </c>
       <c r="D395" t="n">
-        <v>38.71140199823985</v>
+        <v>27.30123590463963</v>
       </c>
     </row>
     <row r="396">
@@ -6033,7 +6033,7 @@
         <v>0.5813566579326458</v>
       </c>
       <c r="D400" t="n">
-        <v>5.745864726939728</v>
+        <v>6.708882365564814</v>
       </c>
     </row>
     <row r="401">
@@ -6075,7 +6075,7 @@
         <v>0.6617522059226212</v>
       </c>
       <c r="D403" t="n">
-        <v>10.14016960157402</v>
+        <v>10.8192371215552</v>
       </c>
     </row>
     <row r="404">
@@ -6089,7 +6089,7 @@
         <v>0.7576874461288674</v>
       </c>
       <c r="D404" t="n">
-        <v>8.514860052397998</v>
+        <v>6.333226453541791</v>
       </c>
     </row>
     <row r="405">
@@ -6117,7 +6117,7 @@
         <v>0.5531000396809433</v>
       </c>
       <c r="D406" t="n">
-        <v>13.12214362541229</v>
+        <v>11.22440121594898</v>
       </c>
     </row>
     <row r="407">
@@ -6159,7 +6159,7 @@
         <v>0.503850495748986</v>
       </c>
       <c r="D409" t="n">
-        <v>9.187622916408987</v>
+        <v>5.876031928231862</v>
       </c>
     </row>
     <row r="410">
@@ -6173,7 +6173,7 @@
         <v>0.5137978446923955</v>
       </c>
       <c r="D410" t="n">
-        <v>11.60396254328422</v>
+        <v>8.949220070485948</v>
       </c>
     </row>
     <row r="411">
@@ -6187,7 +6187,7 @@
         <v>0.6564376432658703</v>
       </c>
       <c r="D411" t="n">
-        <v>6.024255548112603</v>
+        <v>6.404656888582357</v>
       </c>
     </row>
     <row r="412">
@@ -6215,7 +6215,7 @@
         <v>0.526438242028973</v>
       </c>
       <c r="D413" t="n">
-        <v>16.90186396757013</v>
+        <v>12.39833762564534</v>
       </c>
     </row>
     <row r="414">
@@ -6243,7 +6243,7 @@
         <v>0.6322875521413144</v>
       </c>
       <c r="D415" t="n">
-        <v>13.90548090496805</v>
+        <v>12.25558826295437</v>
       </c>
     </row>
     <row r="416">
@@ -6257,7 +6257,7 @@
         <v>0.5330536383231924</v>
       </c>
       <c r="D416" t="n">
-        <v>11.95749110003092</v>
+        <v>8.432580319413992</v>
       </c>
     </row>
     <row r="417">
@@ -6271,7 +6271,7 @@
         <v>0.6715749964228167</v>
       </c>
       <c r="D417" t="n">
-        <v>16.22572962715856</v>
+        <v>15.1449477904773</v>
       </c>
     </row>
     <row r="418">
@@ -6285,7 +6285,7 @@
         <v>0.6407737398029665</v>
       </c>
       <c r="D418" t="n">
-        <v>13.60305192505412</v>
+        <v>13.69549511697463</v>
       </c>
     </row>
     <row r="419">
@@ -6313,7 +6313,7 @@
         <v>0.6952217898576664</v>
       </c>
       <c r="D420" t="n">
-        <v>5.070844125180376</v>
+        <v>7.157342068625529</v>
       </c>
     </row>
     <row r="421">
@@ -6341,7 +6341,7 @@
         <v>0.6715003025389531</v>
       </c>
       <c r="D422" t="n">
-        <v>6.55006572802198</v>
+        <v>6.434355761115732</v>
       </c>
     </row>
     <row r="423">
@@ -6383,7 +6383,7 @@
         <v>0.5779507366499504</v>
       </c>
       <c r="D425" t="n">
-        <v>7.037149151755982</v>
+        <v>6.269153357391328</v>
       </c>
     </row>
     <row r="426">
@@ -6397,7 +6397,7 @@
         <v>0.5106783528905575</v>
       </c>
       <c r="D426" t="n">
-        <v>11.38868566144174</v>
+        <v>13.3290149704431</v>
       </c>
     </row>
     <row r="427">
@@ -6425,7 +6425,7 @@
         <v>0.5016476487975189</v>
       </c>
       <c r="D428" t="n">
-        <v>8.733512189219509</v>
+        <v>9.075811000170269</v>
       </c>
     </row>
     <row r="429">
@@ -6537,7 +6537,7 @@
         <v>0.5405197413071658</v>
       </c>
       <c r="D436" t="n">
-        <v>4.062810626110004</v>
+        <v>4.64463446310974</v>
       </c>
     </row>
     <row r="437">
@@ -6551,7 +6551,7 @@
         <v>0.5268223211058917</v>
       </c>
       <c r="D437" t="n">
-        <v>5.782729289410987</v>
+        <v>5.686842684840254</v>
       </c>
     </row>
     <row r="438">
@@ -6621,7 +6621,7 @@
         <v>0.5117236746881132</v>
       </c>
       <c r="D442" t="n">
-        <v>18.97496734501609</v>
+        <v>18.74709674528679</v>
       </c>
     </row>
     <row r="443">
@@ -6649,7 +6649,7 @@
         <v>0.5423263280957034</v>
       </c>
       <c r="D444" t="n">
-        <v>4.648030186599116</v>
+        <v>4.137616003867666</v>
       </c>
     </row>
     <row r="445">
@@ -6663,7 +6663,7 @@
         <v>0.5343578550621257</v>
       </c>
       <c r="D445" t="n">
-        <v>4.2327995736902</v>
+        <v>4.338810639795447</v>
       </c>
     </row>
     <row r="446">
@@ -6677,7 +6677,7 @@
         <v>0.5121480349690537</v>
       </c>
       <c r="D446" t="n">
-        <v>4.681856602980351</v>
+        <v>11.33618465866941</v>
       </c>
     </row>
     <row r="447">
@@ -6691,7 +6691,7 @@
         <v>0.5090857921776263</v>
       </c>
       <c r="D447" t="n">
-        <v>4.487684427095723</v>
+        <v>4.632679282924416</v>
       </c>
     </row>
     <row r="448">
@@ -6705,7 +6705,7 @@
         <v>0.5170414280893855</v>
       </c>
       <c r="D448" t="n">
-        <v>8.967139488576896</v>
+        <v>9.149698345146914</v>
       </c>
     </row>
     <row r="449">
@@ -6817,7 +6817,7 @@
         <v>0.5473220705773897</v>
       </c>
       <c r="D456" t="n">
-        <v>42.16819610119048</v>
+        <v>29.01020885750123</v>
       </c>
     </row>
     <row r="457">
@@ -6845,7 +6845,7 @@
         <v>0.511096288184116</v>
       </c>
       <c r="D458" t="n">
-        <v>6.07431149989891</v>
+        <v>6.178977246056157</v>
       </c>
     </row>
     <row r="459">
@@ -6859,7 +6859,7 @@
         <v>0.5557855722098233</v>
       </c>
       <c r="D459" t="n">
-        <v>12.99102766336838</v>
+        <v>13.08462305941229</v>
       </c>
     </row>
     <row r="460">
@@ -6887,7 +6887,7 @@
         <v>0.5965390642734826</v>
       </c>
       <c r="D461" t="n">
-        <v>11.74698382949392</v>
+        <v>9.37716654861187</v>
       </c>
     </row>
     <row r="462">
@@ -6915,7 +6915,7 @@
         <v>0.5594113623565156</v>
       </c>
       <c r="D463" t="n">
-        <v>5.529624580900251</v>
+        <v>5.41371651061815</v>
       </c>
     </row>
     <row r="464">
@@ -6929,7 +6929,7 @@
         <v>0.6858952836558562</v>
       </c>
       <c r="D464" t="n">
-        <v>8.874225320165943</v>
+        <v>8.576960301027366</v>
       </c>
     </row>
     <row r="465">
@@ -6943,7 +6943,7 @@
         <v>0.5188900065041979</v>
       </c>
       <c r="D465" t="n">
-        <v>4.431336077528623</v>
+        <v>4.68583136464648</v>
       </c>
     </row>
     <row r="466">
@@ -6971,7 +6971,7 @@
         <v>0.5146238319071013</v>
       </c>
       <c r="D467" t="n">
-        <v>6.103062977102264</v>
+        <v>7.005447899599623</v>
       </c>
     </row>
     <row r="468">
@@ -6985,7 +6985,7 @@
         <v>0.5296691416705582</v>
       </c>
       <c r="D468" t="n">
-        <v>5.606630363109115</v>
+        <v>4.918020648738517</v>
       </c>
     </row>
     <row r="469">
@@ -6999,7 +6999,7 @@
         <v>0.5223086905132671</v>
       </c>
       <c r="D469" t="n">
-        <v>6.978582209675246</v>
+        <v>6.967754627708893</v>
       </c>
     </row>
     <row r="470">
@@ -7013,7 +7013,7 @@
         <v>0.5070019635013195</v>
       </c>
       <c r="D470" t="n">
-        <v>18.14737702625747</v>
+        <v>16.41312037941703</v>
       </c>
     </row>
     <row r="471">
@@ -7111,7 +7111,7 @@
         <v>0.5014254236759184</v>
       </c>
       <c r="D477" t="n">
-        <v>5.942061307928181</v>
+        <v>5.544299298265343</v>
       </c>
     </row>
     <row r="478">
@@ -7167,7 +7167,7 @@
         <v>0.6037445719988811</v>
       </c>
       <c r="D481" t="n">
-        <v>20.77909799463433</v>
+        <v>14.38914368035258</v>
       </c>
     </row>
     <row r="482">
@@ -7195,7 +7195,7 @@
         <v>0.546195855394129</v>
       </c>
       <c r="D483" t="n">
-        <v>9.910072696311627</v>
+        <v>15.11491574894352</v>
       </c>
     </row>
     <row r="484">
@@ -7223,7 +7223,7 @@
         <v>0.5532483849565613</v>
       </c>
       <c r="D485" t="n">
-        <v>6.307300071709046</v>
+        <v>5.891279687277593</v>
       </c>
     </row>
     <row r="486">
@@ -7251,7 +7251,7 @@
         <v>0.5265750152071306</v>
       </c>
       <c r="D487" t="n">
-        <v>39.55241105078453</v>
+        <v>28.54184047964768</v>
       </c>
     </row>
     <row r="488">
@@ -7293,7 +7293,7 @@
         <v>0.5697872123606585</v>
       </c>
       <c r="D490" t="n">
-        <v>10.37924119331066</v>
+        <v>8.687138653765514</v>
       </c>
     </row>
     <row r="491">
@@ -7405,7 +7405,7 @@
         <v>0.6170055107522353</v>
       </c>
       <c r="D498" t="n">
-        <v>39.73638833462172</v>
+        <v>28.6472672772968</v>
       </c>
     </row>
     <row r="499">
@@ -7447,7 +7447,7 @@
         <v>0.5582046404391268</v>
       </c>
       <c r="D501" t="n">
-        <v>6.162628941152217</v>
+        <v>5.517851634933792</v>
       </c>
     </row>
     <row r="502">
@@ -7475,7 +7475,7 @@
         <v>0.5166852576563408</v>
       </c>
       <c r="D503" t="n">
-        <v>34.07240632456828</v>
+        <v>24.5232988357261</v>
       </c>
     </row>
     <row r="504">
@@ -7489,7 +7489,7 @@
         <v>0.5091684543838992</v>
       </c>
       <c r="D504" t="n">
-        <v>7.388262368851388</v>
+        <v>7.284139754353472</v>
       </c>
     </row>
     <row r="505">
@@ -7503,7 +7503,7 @@
         <v>0.531710221972822</v>
       </c>
       <c r="D505" t="n">
-        <v>5.294938674510014</v>
+        <v>5.650767065255689</v>
       </c>
     </row>
     <row r="506">
@@ -7531,7 +7531,7 @@
         <v>0.5481959158893707</v>
       </c>
       <c r="D507" t="n">
-        <v>5.147633481835627</v>
+        <v>4.261524066199044</v>
       </c>
     </row>
     <row r="508">
@@ -7545,7 +7545,7 @@
         <v>0.4152644283969421</v>
       </c>
       <c r="D508" t="n">
-        <v>3.388505658627087</v>
+        <v>0.7542172619047619</v>
       </c>
     </row>
     <row r="509">
@@ -7559,7 +7559,7 @@
         <v>0.5338392298531933</v>
       </c>
       <c r="D509" t="n">
-        <v>11.37353780960111</v>
+        <v>12.00085599286073</v>
       </c>
     </row>
     <row r="510">
@@ -7643,7 +7643,7 @@
         <v>0.5527295734665301</v>
       </c>
       <c r="D515" t="n">
-        <v>12.20086742849413</v>
+        <v>10.26071714747564</v>
       </c>
     </row>
     <row r="516">
@@ -7657,7 +7657,7 @@
         <v>0.6159348020459525</v>
       </c>
       <c r="D516" t="n">
-        <v>11.01243673580796</v>
+        <v>9.463849372127344</v>
       </c>
     </row>
     <row r="517">
@@ -7713,7 +7713,7 @@
         <v>0.5223058538785463</v>
       </c>
       <c r="D520" t="n">
-        <v>4.807515370284478</v>
+        <v>4.778777377567868</v>
       </c>
     </row>
     <row r="521">
@@ -7741,7 +7741,7 @@
         <v>0.540338337413747</v>
       </c>
       <c r="D522" t="n">
-        <v>19.009295242674</v>
+        <v>13.82083816044483</v>
       </c>
     </row>
     <row r="523">
@@ -7783,7 +7783,7 @@
         <v>0.7837263219437222</v>
       </c>
       <c r="D525" t="n">
-        <v>12.79446597463053</v>
+        <v>10.70820372563118</v>
       </c>
     </row>
     <row r="526">
@@ -7811,7 +7811,7 @@
         <v>0.541960932717148</v>
       </c>
       <c r="D527" t="n">
-        <v>34.69843094246031</v>
+        <v>27.19236118930827</v>
       </c>
     </row>
     <row r="528">
@@ -7839,7 +7839,7 @@
         <v>0.6207892306999054</v>
       </c>
       <c r="D529" t="n">
-        <v>5.660181483343044</v>
+        <v>5.430939193658623</v>
       </c>
     </row>
     <row r="530">
@@ -7853,7 +7853,7 @@
         <v>0.5285360244521596</v>
       </c>
       <c r="D530" t="n">
-        <v>16.32271289349539</v>
+        <v>14.21900654363882</v>
       </c>
     </row>
     <row r="531">
@@ -7867,7 +7867,7 @@
         <v>0.5716411448498057</v>
       </c>
       <c r="D531" t="n">
-        <v>34.8720339598794</v>
+        <v>26.16807001077345</v>
       </c>
     </row>
     <row r="532">
@@ -7909,7 +7909,7 @@
         <v>0.5328267471396815</v>
       </c>
       <c r="D534" t="n">
-        <v>10.72900258976143</v>
+        <v>10.34108566391115</v>
       </c>
     </row>
     <row r="535">
@@ -7923,7 +7923,7 @@
         <v>0.5769987615356763</v>
       </c>
       <c r="D535" t="n">
-        <v>7.182469145472583</v>
+        <v>5.573151741988658</v>
       </c>
     </row>
     <row r="536">
@@ -7937,7 +7937,7 @@
         <v>0.5742430094413522</v>
       </c>
       <c r="D536" t="n">
-        <v>19.52972751282447</v>
+        <v>12.63989824536351</v>
       </c>
     </row>
     <row r="537">
@@ -7979,7 +7979,7 @@
         <v>0.5213100395463892</v>
       </c>
       <c r="D539" t="n">
-        <v>5.890478980602728</v>
+        <v>6.05071468079656</v>
       </c>
     </row>
     <row r="540">
@@ -8007,7 +8007,7 @@
         <v>0.5225605245605731</v>
       </c>
       <c r="D541" t="n">
-        <v>11.66630917929293</v>
+        <v>8.092155660048212</v>
       </c>
     </row>
     <row r="542">
@@ -8021,7 +8021,7 @@
         <v>0.5710847047321549</v>
       </c>
       <c r="D542" t="n">
-        <v>15.40147875123884</v>
+        <v>13.93876912430466</v>
       </c>
     </row>
     <row r="543">
@@ -8035,7 +8035,7 @@
         <v>0.6115569288430052</v>
       </c>
       <c r="D543" t="n">
-        <v>18.28039451943889</v>
+        <v>17.50802771448849</v>
       </c>
     </row>
     <row r="544">
@@ -8119,7 +8119,7 @@
         <v>0.5996001837300801</v>
       </c>
       <c r="D549" t="n">
-        <v>10.78583473549268</v>
+        <v>8.179060275348096</v>
       </c>
     </row>
     <row r="550">
@@ -8147,7 +8147,7 @@
         <v>0.507879056761617</v>
       </c>
       <c r="D551" t="n">
-        <v>11.46951175358372</v>
+        <v>9.225160095150338</v>
       </c>
     </row>
     <row r="552">
@@ -8175,7 +8175,7 @@
         <v>0.5350424892093277</v>
       </c>
       <c r="D553" t="n">
-        <v>20.38207212902177</v>
+        <v>16.12662931312657</v>
       </c>
     </row>
     <row r="554">
@@ -8189,7 +8189,7 @@
         <v>0.552584981404459</v>
       </c>
       <c r="D554" t="n">
-        <v>8.383023786267421</v>
+        <v>6.578035552385779</v>
       </c>
     </row>
     <row r="555">
@@ -8217,7 +8217,7 @@
         <v>0.5113928997037813</v>
       </c>
       <c r="D556" t="n">
-        <v>6.202674763321995</v>
+        <v>5.740644179390092</v>
       </c>
     </row>
     <row r="557">
@@ -8231,7 +8231,7 @@
         <v>0.5230950831544917</v>
       </c>
       <c r="D557" t="n">
-        <v>7.374040559747792</v>
+        <v>7.892143665310236</v>
       </c>
     </row>
     <row r="558">
@@ -8287,7 +8287,7 @@
         <v>0.7662537654411752</v>
       </c>
       <c r="D561" t="n">
-        <v>7.087675272624203</v>
+        <v>6.895194215914124</v>
       </c>
     </row>
     <row r="562">
@@ -8357,7 +8357,7 @@
         <v>0.5092537608724276</v>
       </c>
       <c r="D566" t="n">
-        <v>4.351330720192506</v>
+        <v>5.198521247455858</v>
       </c>
     </row>
     <row r="567">
@@ -8399,7 +8399,7 @@
         <v>0.5278775549705004</v>
       </c>
       <c r="D569" t="n">
-        <v>10.52744276277294</v>
+        <v>14.33838509491197</v>
       </c>
     </row>
     <row r="570">
@@ -8441,7 +8441,7 @@
         <v>0.6317319451613339</v>
       </c>
       <c r="D572" t="n">
-        <v>9.463797801910395</v>
+        <v>8.601610134772926</v>
       </c>
     </row>
     <row r="573">
@@ -8483,7 +8483,7 @@
         <v>0.5138072551167661</v>
       </c>
       <c r="D575" t="n">
-        <v>4.490647943286873</v>
+        <v>6.020758561302434</v>
       </c>
     </row>
     <row r="576">
@@ -8525,7 +8525,7 @@
         <v>0.5299842429988814</v>
       </c>
       <c r="D578" t="n">
-        <v>6.929681078291748</v>
+        <v>5.642006963932424</v>
       </c>
     </row>
     <row r="579">
@@ -8665,7 +8665,7 @@
         <v>0.54585747176404</v>
       </c>
       <c r="D588" t="n">
-        <v>7.264061295133438</v>
+        <v>7.397993321108453</v>
       </c>
     </row>
     <row r="589">
@@ -8679,7 +8679,7 @@
         <v>0.480629994781817</v>
       </c>
       <c r="D589" t="n">
-        <v>0.8341124188311688</v>
+        <v>2.669603820861678</v>
       </c>
     </row>
     <row r="590">
@@ -8693,7 +8693,7 @@
         <v>0.5147442995010959</v>
       </c>
       <c r="D590" t="n">
-        <v>9.936197201934966</v>
+        <v>11.26691135122949</v>
       </c>
     </row>
     <row r="591">
@@ -8735,7 +8735,7 @@
         <v>0.5754211405606172</v>
       </c>
       <c r="D593" t="n">
-        <v>12.1023964696712</v>
+        <v>11.03232231612643</v>
       </c>
     </row>
     <row r="594">
@@ -8749,7 +8749,7 @@
         <v>0.5232153412558456</v>
       </c>
       <c r="D594" t="n">
-        <v>12.75071678197795</v>
+        <v>11.67787595325145</v>
       </c>
     </row>
     <row r="595">
@@ -8763,7 +8763,7 @@
         <v>0.5991031696254138</v>
       </c>
       <c r="D595" t="n">
-        <v>5.593940604464978</v>
+        <v>5.900101037722686</v>
       </c>
     </row>
     <row r="596">
@@ -8777,7 +8777,7 @@
         <v>0.5460798097460817</v>
       </c>
       <c r="D596" t="n">
-        <v>35.22868616661116</v>
+        <v>26.76359061054025</v>
       </c>
     </row>
     <row r="597">
@@ -8847,7 +8847,7 @@
         <v>0.533679775358462</v>
       </c>
       <c r="D601" t="n">
-        <v>21.53487875033696</v>
+        <v>16.22465874674025</v>
       </c>
     </row>
     <row r="602">
@@ -8875,7 +8875,7 @@
         <v>0.5001950365006462</v>
       </c>
       <c r="D603" t="n">
-        <v>16.25534422458494</v>
+        <v>13.10456561261237</v>
       </c>
     </row>
     <row r="604">
@@ -8917,7 +8917,7 @@
         <v>0.5111130167683512</v>
       </c>
       <c r="D606" t="n">
-        <v>8.189279973399616</v>
+        <v>8.840514170085788</v>
       </c>
     </row>
     <row r="607">
@@ -8931,7 +8931,7 @@
         <v>0.5634282970583191</v>
       </c>
       <c r="D607" t="n">
-        <v>6.814943722309437</v>
+        <v>4.44458894090678</v>
       </c>
     </row>
     <row r="608">
@@ -8987,7 +8987,7 @@
         <v>0.5401313601335002</v>
       </c>
       <c r="D611" t="n">
-        <v>5.856922362667095</v>
+        <v>4.096536776137125</v>
       </c>
     </row>
     <row r="612">
@@ -9043,7 +9043,7 @@
         <v>0.5217065958960933</v>
       </c>
       <c r="D615" t="n">
-        <v>8.927133733548196</v>
+        <v>7.210061571589782</v>
       </c>
     </row>
     <row r="616">
@@ -9141,7 +9141,7 @@
         <v>0.5196094538762259</v>
       </c>
       <c r="D622" t="n">
-        <v>5.016043149122704</v>
+        <v>5.105002880145259</v>
       </c>
     </row>
     <row r="623">
@@ -9169,7 +9169,7 @@
         <v>0.5761632461564429</v>
       </c>
       <c r="D624" t="n">
-        <v>14.17015170964948</v>
+        <v>12.36511209561117</v>
       </c>
     </row>
     <row r="625">
@@ -9183,7 +9183,7 @@
         <v>0.50145721583477</v>
       </c>
       <c r="D625" t="n">
-        <v>6.372691038559656</v>
+        <v>7.608759379963523</v>
       </c>
     </row>
     <row r="626">
@@ -9197,7 +9197,7 @@
         <v>0.6852984334168442</v>
       </c>
       <c r="D626" t="n">
-        <v>10.8972687360457</v>
+        <v>8.889724836567202</v>
       </c>
     </row>
     <row r="627">
@@ -9211,7 +9211,7 @@
         <v>0.5415483796579854</v>
       </c>
       <c r="D627" t="n">
-        <v>7.301356202725845</v>
+        <v>6.864169890916759</v>
       </c>
     </row>
     <row r="628">
@@ -9267,7 +9267,7 @@
         <v>0.5221689892666714</v>
       </c>
       <c r="D631" t="n">
-        <v>6.668820835413713</v>
+        <v>6.529356460839113</v>
       </c>
     </row>
     <row r="632">
@@ -9281,7 +9281,7 @@
         <v>0.5637327194510714</v>
       </c>
       <c r="D632" t="n">
-        <v>7.973872050707226</v>
+        <v>9.431959457249672</v>
       </c>
     </row>
     <row r="633">
@@ -9295,7 +9295,7 @@
         <v>0.5475057419289199</v>
       </c>
       <c r="D633" t="n">
-        <v>14.28261225847565</v>
+        <v>8.51214293097231</v>
       </c>
     </row>
     <row r="634">
@@ -9309,7 +9309,7 @@
         <v>0.5244328805163699</v>
       </c>
       <c r="D634" t="n">
-        <v>10.62815880153576</v>
+        <v>10.71501959978533</v>
       </c>
     </row>
     <row r="635">
@@ -9407,7 +9407,7 @@
         <v>0.5137330727516777</v>
       </c>
       <c r="D641" t="n">
-        <v>18.71729992179448</v>
+        <v>13.46360915155436</v>
       </c>
     </row>
     <row r="642">
